--- a/docs/inne/metale.xlsx
+++ b/docs/inne/metale.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafal\Desktop\mag\docs\inne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Metal</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>Edebye (meV)</t>
+  </si>
+  <si>
+    <t>inne1</t>
+  </si>
+  <si>
+    <t>inne2</t>
+  </si>
+  <si>
+    <t>inne3</t>
+  </si>
+  <si>
+    <t>inne4</t>
   </si>
 </sst>
 </file>
@@ -380,7 +392,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +451,7 @@
         <v>11.7</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F5" si="0">B3*$B$19*1000</f>
+        <f t="shared" ref="F3:F10" si="0">B3*$B$19*1000</f>
         <v>32.314988812499998</v>
       </c>
     </row>
@@ -477,6 +489,60 @@
       <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>8.2726371359999984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5851991050000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3086651749999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>8.6173303499999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>17.234660699999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
